--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_nig.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_nig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14580" windowHeight="9990"/>
+    <workbookView windowWidth="15780" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1138,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.515</v>
+        <v>3.797</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.25</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.094</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="15" spans="1:2">
